--- a/Phytoplankton data.xlsx
+++ b/Phytoplankton data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\论文\SCI4 东湖后官湖鲁湖藻类遥感\240802\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B043EBA-CDAA-47C9-811D-BB7CA3D9D182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6FC4C-011F-46F1-A3B1-D78469C01A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$210</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="109">
   <si>
     <t>sp1</t>
   </si>
@@ -237,13 +240,7 @@
     <t>HG</t>
   </si>
   <si>
-    <t>LHX</t>
-  </si>
-  <si>
     <t>LH</t>
-  </si>
-  <si>
-    <t>LHYC</t>
   </si>
   <si>
     <t>Phytoplankton Groups</t>
@@ -355,9 +352,6 @@
     <t>HG4</t>
   </si>
   <si>
-    <t>HG5</t>
-  </si>
-  <si>
     <t>LH1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +372,10 @@
   </si>
   <si>
     <t>LH7</t>
+  </si>
+  <si>
+    <t>LH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -901,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -921,25 +919,25 @@
   <sheetData>
     <row r="1" spans="1:77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -977,16 +975,16 @@
       <c r="AO1" s="18"/>
       <c r="AP1" s="19"/>
       <c r="AQ1" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AR1" s="21"/>
       <c r="AS1" s="21"/>
       <c r="AT1" s="22"/>
       <c r="AU1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AV1" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AW1" s="24"/>
       <c r="AX1" s="24"/>
@@ -1001,7 +999,7 @@
       <c r="BG1" s="24"/>
       <c r="BH1" s="25"/>
       <c r="BI1" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BJ1" s="27"/>
       <c r="BK1" s="27"/>
@@ -1014,16 +1012,16 @@
       <c r="BR1" s="27"/>
       <c r="BS1" s="28"/>
       <c r="BT1" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BU1" s="30"/>
       <c r="BV1" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BW1" s="13"/>
       <c r="BX1" s="14"/>
       <c r="BY1" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.4">
@@ -1178,7 +1176,7 @@
         <v>47</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>48</v>
@@ -1196,7 +1194,7 @@
         <v>52</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BJ2" s="8" t="s">
         <v>53</v>
@@ -1229,22 +1227,22 @@
         <v>62</v>
       </c>
       <c r="BT2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="BU2" s="9" t="s">
+      <c r="BW2" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW2" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="BX2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="BY2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.4">
@@ -1255,7 +1253,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>65</v>
@@ -1488,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>65</v>
@@ -1721,7 +1719,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>65</v>
@@ -1954,7 +1952,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>65</v>
@@ -2187,7 +2185,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>65</v>
@@ -2420,7 +2418,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>65</v>
@@ -2653,7 +2651,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>65</v>
@@ -2886,7 +2884,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>65</v>
@@ -3119,7 +3117,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>65</v>
@@ -3352,7 +3350,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>65</v>
@@ -3585,7 +3583,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>65</v>
@@ -3818,7 +3816,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>65</v>
@@ -4051,7 +4049,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>65</v>
@@ -4284,7 +4282,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>65</v>
@@ -4517,7 +4515,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>65</v>
@@ -4750,7 +4748,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>65</v>
@@ -4983,7 +4981,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>65</v>
@@ -5216,7 +5214,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>65</v>
@@ -5449,7 +5447,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>65</v>
@@ -5682,7 +5680,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
@@ -5915,7 +5913,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>65</v>
@@ -6148,7 +6146,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>65</v>
@@ -6381,7 +6379,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>65</v>
@@ -6614,7 +6612,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>65</v>
@@ -6847,7 +6845,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>65</v>
@@ -7080,7 +7078,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>65</v>
@@ -7313,7 +7311,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>65</v>
@@ -7546,7 +7544,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>65</v>
@@ -7779,7 +7777,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
@@ -8012,7 +8010,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>65</v>
@@ -8245,7 +8243,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>65</v>
@@ -8478,7 +8476,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>65</v>
@@ -8711,7 +8709,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>65</v>
@@ -8944,7 +8942,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>65</v>
@@ -9177,7 +9175,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>65</v>
@@ -9410,7 +9408,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>65</v>
@@ -9643,7 +9641,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>65</v>
@@ -9876,7 +9874,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>65</v>
@@ -10109,7 +10107,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
@@ -10342,7 +10340,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>65</v>
@@ -10575,7 +10573,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>65</v>
@@ -10808,7 +10806,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>65</v>
@@ -11041,7 +11039,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>65</v>
@@ -11274,7 +11272,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>65</v>
@@ -11507,7 +11505,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>65</v>
@@ -11740,7 +11738,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>65</v>
@@ -11973,7 +11971,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>65</v>
@@ -12206,7 +12204,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>65</v>
@@ -12439,7 +12437,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>65</v>
@@ -12672,7 +12670,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>65</v>
@@ -12905,7 +12903,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>65</v>
@@ -13138,7 +13136,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>65</v>
@@ -13371,7 +13369,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>65</v>
@@ -13604,7 +13602,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>65</v>
@@ -13837,7 +13835,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>65</v>
@@ -14070,7 +14068,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>65</v>
@@ -14303,7 +14301,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>65</v>
@@ -14536,7 +14534,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>65</v>
@@ -14769,7 +14767,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>65</v>
@@ -15002,7 +15000,7 @@
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>65</v>
@@ -15235,7 +15233,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>65</v>
@@ -15468,7 +15466,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>65</v>
@@ -15701,7 +15699,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>65</v>
@@ -15934,7 +15932,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>65</v>
@@ -16167,7 +16165,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>65</v>
@@ -16400,7 +16398,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>65</v>
@@ -16633,7 +16631,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>65</v>
@@ -16866,7 +16864,7 @@
         <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>65</v>
@@ -17099,7 +17097,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>65</v>
@@ -17332,7 +17330,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>65</v>
@@ -17565,7 +17563,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>65</v>
@@ -17798,7 +17796,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>65</v>
@@ -18031,7 +18029,7 @@
         <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>65</v>
@@ -18264,7 +18262,7 @@
         <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>65</v>
@@ -18497,7 +18495,7 @@
         <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>65</v>
@@ -18730,7 +18728,7 @@
         <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>69</v>
@@ -18963,7 +18961,7 @@
         <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>69</v>
@@ -19196,7 +19194,7 @@
         <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>69</v>
@@ -19429,7 +19427,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>69</v>
@@ -19662,7 +19660,7 @@
         <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>69</v>
@@ -19895,7 +19893,7 @@
         <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>69</v>
@@ -20128,7 +20126,7 @@
         <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>69</v>
@@ -20361,7 +20359,7 @@
         <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>69</v>
@@ -20594,7 +20592,7 @@
         <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>69</v>
@@ -20827,7 +20825,7 @@
         <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>69</v>
@@ -21060,7 +21058,7 @@
         <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>69</v>
@@ -21293,7 +21291,7 @@
         <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>69</v>
@@ -21526,7 +21524,7 @@
         <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>69</v>
@@ -21759,7 +21757,7 @@
         <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>69</v>
@@ -21992,7 +21990,7 @@
         <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>69</v>
@@ -22225,7 +22223,7 @@
         <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>69</v>
@@ -22458,7 +22456,7 @@
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>69</v>
@@ -22691,7 +22689,7 @@
         <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>69</v>
@@ -22924,7 +22922,7 @@
         <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>69</v>
@@ -23157,7 +23155,7 @@
         <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>69</v>
@@ -23390,7 +23388,7 @@
         <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>69</v>
@@ -23623,7 +23621,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>69</v>
@@ -23856,7 +23854,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>69</v>
@@ -24089,7 +24087,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>69</v>
@@ -24322,7 +24320,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>69</v>
@@ -24555,7 +24553,7 @@
         <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>69</v>
@@ -24788,7 +24786,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>69</v>
@@ -25021,7 +25019,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>69</v>
@@ -25254,7 +25252,7 @@
         <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>69</v>
@@ -25487,7 +25485,7 @@
         <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>69</v>
@@ -25720,7 +25718,7 @@
         <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>69</v>
@@ -25953,7 +25951,7 @@
         <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>69</v>
@@ -26186,7 +26184,7 @@
         <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>69</v>
@@ -26419,7 +26417,7 @@
         <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>69</v>
@@ -26652,7 +26650,7 @@
         <v>66</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>69</v>
@@ -26885,7 +26883,7 @@
         <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>69</v>
@@ -27118,7 +27116,7 @@
         <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>69</v>
@@ -27351,7 +27349,7 @@
         <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>69</v>
@@ -27584,7 +27582,7 @@
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>69</v>
@@ -27817,7 +27815,7 @@
         <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>69</v>
@@ -28050,7 +28048,7 @@
         <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>69</v>
@@ -28283,7 +28281,7 @@
         <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>69</v>
@@ -28516,7 +28514,7 @@
         <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>69</v>
@@ -28749,7 +28747,7 @@
         <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>69</v>
@@ -28982,7 +28980,7 @@
         <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>69</v>
@@ -29215,7 +29213,7 @@
         <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>69</v>
@@ -29448,7 +29446,7 @@
         <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>69</v>
@@ -29681,7 +29679,7 @@
         <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>69</v>
@@ -29914,7 +29912,7 @@
         <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>69</v>
@@ -30147,7 +30145,7 @@
         <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>69</v>
@@ -30380,7 +30378,7 @@
         <v>64</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>69</v>
@@ -30613,7 +30611,7 @@
         <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>69</v>
@@ -30846,7 +30844,7 @@
         <v>64</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>69</v>
@@ -31079,7 +31077,7 @@
         <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>69</v>
@@ -31312,7 +31310,7 @@
         <v>66</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>69</v>
@@ -31545,7 +31543,7 @@
         <v>66</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>69</v>
@@ -31778,7 +31776,7 @@
         <v>64</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>69</v>
@@ -32011,7 +32009,7 @@
         <v>64</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>69</v>
@@ -32244,7 +32242,7 @@
         <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>69</v>
@@ -32477,7 +32475,7 @@
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>69</v>
@@ -32710,7 +32708,7 @@
         <v>64</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>69</v>
@@ -32943,7 +32941,7 @@
         <v>64</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>69</v>
@@ -33176,7 +33174,7 @@
         <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>69</v>
@@ -33409,7 +33407,7 @@
         <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>69</v>
@@ -33642,7 +33640,7 @@
         <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>69</v>
@@ -33875,7 +33873,7 @@
         <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>69</v>
@@ -34108,7 +34106,7 @@
         <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>69</v>
@@ -34341,7 +34339,7 @@
         <v>66</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>69</v>
@@ -34574,7 +34572,7 @@
         <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>69</v>
@@ -34807,7 +34805,7 @@
         <v>66</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>69</v>
@@ -35040,7 +35038,7 @@
         <v>66</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>69</v>
@@ -35273,7 +35271,7 @@
         <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>69</v>
@@ -35506,7 +35504,7 @@
         <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>69</v>
@@ -35739,7 +35737,7 @@
         <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>69</v>
@@ -35972,7 +35970,7 @@
         <v>66</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>69</v>
@@ -36205,7 +36203,7 @@
         <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>69</v>
@@ -36438,7 +36436,7 @@
         <v>66</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>69</v>
@@ -36671,7 +36669,7 @@
         <v>64</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>69</v>
@@ -36904,7 +36902,7 @@
         <v>66</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>69</v>
@@ -37137,7 +37135,7 @@
         <v>66</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>69</v>
@@ -37370,7 +37368,7 @@
         <v>64</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>69</v>
@@ -37603,7 +37601,7 @@
         <v>64</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>69</v>
@@ -37836,7 +37834,7 @@
         <v>64</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>69</v>
@@ -38069,7 +38067,7 @@
         <v>64</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>69</v>
@@ -38302,7 +38300,7 @@
         <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>69</v>
@@ -38535,7 +38533,7 @@
         <v>64</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>69</v>
@@ -38768,7 +38766,7 @@
         <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>69</v>
@@ -39001,7 +38999,7 @@
         <v>64</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>69</v>
@@ -39234,7 +39232,7 @@
         <v>64</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>69</v>
@@ -39467,7 +39465,7 @@
         <v>66</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>69</v>
@@ -39700,7 +39698,7 @@
         <v>68</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>69</v>
@@ -39933,7 +39931,7 @@
         <v>66</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>69</v>
@@ -40166,7 +40164,7 @@
         <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>69</v>
@@ -40399,7 +40397,7 @@
         <v>64</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>69</v>
@@ -40632,7 +40630,7 @@
         <v>66</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>69</v>
@@ -40865,7 +40863,7 @@
         <v>66</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>69</v>
@@ -41098,7 +41096,7 @@
         <v>66</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>69</v>
@@ -41331,7 +41329,7 @@
         <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>69</v>
@@ -41564,7 +41562,7 @@
         <v>66</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>69</v>
@@ -41797,7 +41795,7 @@
         <v>66</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>69</v>
@@ -42030,7 +42028,7 @@
         <v>64</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>69</v>
@@ -42263,7 +42261,7 @@
         <v>64</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>69</v>
@@ -42496,7 +42494,7 @@
         <v>64</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>69</v>
@@ -42729,7 +42727,7 @@
         <v>64</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>69</v>
@@ -42962,7 +42960,7 @@
         <v>64</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>69</v>
@@ -43195,7 +43193,7 @@
         <v>64</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>69</v>
@@ -43428,7 +43426,7 @@
         <v>64</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>69</v>
@@ -43661,7 +43659,7 @@
         <v>64</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>69</v>
@@ -43894,7 +43892,7 @@
         <v>64</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>69</v>
@@ -44127,7 +44125,7 @@
         <v>64</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>69</v>
@@ -44360,7 +44358,7 @@
         <v>64</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>69</v>
@@ -44593,7 +44591,7 @@
         <v>64</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>69</v>
@@ -44826,7 +44824,7 @@
         <v>64</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>69</v>
@@ -45059,7 +45057,7 @@
         <v>64</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>69</v>
@@ -45292,7 +45290,7 @@
         <v>64</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>69</v>
@@ -45525,7 +45523,7 @@
         <v>64</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>69</v>
@@ -45758,7 +45756,7 @@
         <v>67</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>69</v>
@@ -45991,7 +45989,7 @@
         <v>67</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>69</v>
@@ -46224,7 +46222,7 @@
         <v>67</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>69</v>
@@ -46457,7 +46455,7 @@
         <v>64</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>69</v>
@@ -46690,10 +46688,10 @@
         <v>66</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E198" s="3">
         <v>42585</v>
@@ -46923,10 +46921,10 @@
         <v>66</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E199" s="3">
         <v>42585</v>
@@ -47156,10 +47154,10 @@
         <v>66</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E200" s="3">
         <v>42599</v>
@@ -47389,10 +47387,10 @@
         <v>66</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E201" s="3">
         <v>42599</v>
@@ -47622,10 +47620,10 @@
         <v>66</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E202" s="3">
         <v>42599</v>
@@ -47855,10 +47853,10 @@
         <v>66</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E203" s="3">
         <v>42599</v>
@@ -48088,10 +48086,10 @@
         <v>66</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E204" s="3">
         <v>42599</v>
@@ -48321,10 +48319,10 @@
         <v>66</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E205" s="3">
         <v>42599</v>
@@ -48554,10 +48552,10 @@
         <v>66</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E206" s="3">
         <v>42599</v>
@@ -48787,10 +48785,10 @@
         <v>66</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E207" s="3">
         <v>42614</v>
@@ -49020,10 +49018,10 @@
         <v>68</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E208" s="3">
         <v>42614</v>
@@ -49253,10 +49251,10 @@
         <v>66</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E209" s="3">
         <v>42712</v>
@@ -49486,10 +49484,10 @@
         <v>64</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E210" s="3">
         <v>42712</v>
@@ -49712,6 +49710,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C210" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="12">
     <mergeCell ref="BV1:BX1"/>
     <mergeCell ref="A1:A2"/>
